--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="AssetProfile" sheetId="2" r:id="rId2"/>
-    <sheet name="AssetTest" sheetId="4" r:id="rId3"/>
-    <sheet name="AssetValue" sheetId="5" r:id="rId4"/>
-    <sheet name="LeaseProfile" sheetId="3" r:id="rId5"/>
-    <sheet name="LTtoSTUpdate" sheetId="6" r:id="rId6"/>
-    <sheet name="Incomeupdate" sheetId="7" r:id="rId7"/>
-    <sheet name="InvoiceDateUpdate" sheetId="8" r:id="rId8"/>
-    <sheet name="Salesupdate" sheetId="9" r:id="rId9"/>
-    <sheet name="InvoiceGeneration" sheetId="10" r:id="rId10"/>
-    <sheet name="Receipt" sheetId="11" r:id="rId11"/>
+    <sheet name="AssetTest" sheetId="4" r:id="rId2"/>
+    <sheet name="AssetValue" sheetId="5" r:id="rId3"/>
+    <sheet name="LeaseProfile" sheetId="3" r:id="rId4"/>
+    <sheet name="LTtoSTUpdate" sheetId="6" r:id="rId5"/>
+    <sheet name="Incomeupdate" sheetId="7" r:id="rId6"/>
+    <sheet name="InvoiceDateUpdate" sheetId="8" r:id="rId7"/>
+    <sheet name="Salesupdate" sheetId="9" r:id="rId8"/>
+    <sheet name="InvoiceGeneration" sheetId="10" r:id="rId9"/>
+    <sheet name="Receipt" sheetId="11" r:id="rId10"/>
+    <sheet name="ProductProfile" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Company Name</t>
   </si>
@@ -102,33 +102,12 @@
     <t>Asset Product1-Test</t>
   </si>
   <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>sss - sss</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>aishwarya.v</t>
   </si>
   <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>005162</t>
-  </si>
-  <si>
-    <t>lc-1</t>
-  </si>
-  <si>
-    <t>Contract1 - Contract1</t>
-  </si>
-  <si>
-    <t>Division1 - Division1</t>
-  </si>
-  <si>
     <t>Lease Billing Type</t>
   </si>
   <si>
@@ -138,61 +117,49 @@
     <t>Lease Rental</t>
   </si>
   <si>
-    <t>Receipt Amount</t>
-  </si>
-  <si>
     <t>Lease Term</t>
   </si>
   <si>
     <t>Arrears</t>
   </si>
   <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Advance EOM</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>Semi-Annually</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>ode-174</t>
-  </si>
-  <si>
-    <t>ode-176</t>
-  </si>
-  <si>
-    <t>ode-177</t>
-  </si>
-  <si>
-    <t>ode-178</t>
-  </si>
-  <si>
-    <t>ode-179</t>
-  </si>
-  <si>
-    <t>ode-180</t>
-  </si>
-  <si>
-    <t>hn</t>
-  </si>
-  <si>
     <t>Unitnumber</t>
   </si>
   <si>
     <t>LeaseSequenceNumber</t>
   </si>
   <si>
-    <t>ode-192</t>
+    <t xml:space="preserve">ProductCode </t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>Ambulance_NonOwned</t>
+  </si>
+  <si>
+    <t>AL1015-ALD0009</t>
+  </si>
+  <si>
+    <t>al1015</t>
+  </si>
+  <si>
+    <t>Contract2 - Contract2</t>
+  </si>
+  <si>
+    <t>Division-1 - Division-1</t>
+  </si>
+  <si>
+    <t>SD-1 - SD-1</t>
+  </si>
+  <si>
+    <t>ode-2123</t>
   </si>
 </sst>
 </file>
@@ -279,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,9 +262,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -618,7 +582,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -666,35 +630,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
-        <f>LeaseProfile!B2</f>
-        <v>ode-192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -709,13 +644,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>LeaseProfile!B2</f>
-        <v>ode-192</v>
+        <v>ode-2123</v>
       </c>
     </row>
   </sheetData>
@@ -723,435 +658,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="8">
-        <v>3600</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="8">
-        <v>3600</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="1">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1">
-        <v>320</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="8">
-        <v>3600</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="1">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1">
-        <v>620</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="8">
-        <v>3600</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1300</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="8">
-        <v>3600</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="1">
-        <v>36</v>
-      </c>
-      <c r="P6" s="1">
-        <v>110</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="8">
-        <v>3600</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="1">
-        <v>36</v>
-      </c>
-      <c r="P7" s="1">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1192,31 +753,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -1230,7 +791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1245,7 +806,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1258,12 +819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,35 +841,35 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>AssetTest!D2</f>
-        <v>005162</v>
+        <v>al1015</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>AssetTest!A2</f>
-        <v>ode-192</v>
+        <v>ode-2123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
         <v>36</v>
@@ -1320,6 +881,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>LeaseProfile!B2</f>
+        <v>ode-2123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1338,13 +928,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>LeaseProfile!B2</f>
-        <v>ode-192</v>
+        <v>ode-2123</v>
       </c>
     </row>
   </sheetData>
@@ -1367,13 +957,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>LeaseProfile!B2</f>
-        <v>ode-192</v>
+        <v>ode-2123</v>
       </c>
     </row>
   </sheetData>
@@ -1396,13 +986,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>LeaseProfile!B2</f>
-        <v>ode-192</v>
+        <v>ode-2123</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1005,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,13 +1015,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>LeaseProfile!B2</f>
-        <v>ode-192</v>
+        <v>ode-2123</v>
       </c>
     </row>
   </sheetData>
